--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -538,17 +538,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
@@ -657,51 +657,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -504,17 +504,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Kelly Oubre Jr.</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
@@ -657,51 +657,51 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Kelly Oubre Jr.</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -504,7 +504,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Stephon Castle</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,14 +514,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
@@ -589,34 +589,34 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
@@ -657,24 +657,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kelly Oubre Jr.</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,24 +684,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -572,17 +572,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,24 +667,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Stephon Castle</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
@@ -623,58 +623,58 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Jaden McDaniels</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -684,24 +684,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Minnesota Timberwolves</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -453,24 +453,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Scotty Pippen Jr.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,14 +480,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Memphis Grizzlies</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Scotty Pippen Jr.</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,14 +514,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,24 +531,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
@@ -657,41 +657,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jaden McDaniels</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -487,7 +487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
@@ -538,17 +538,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
@@ -657,34 +657,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Zach Collins</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
@@ -589,75 +589,75 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Ty Jerome</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,24 +667,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Zach Collins</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -521,7 +521,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -572,17 +572,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Peyton Watson</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
@@ -640,68 +640,68 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ty Jerome</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -521,7 +521,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,24 +531,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,24 +667,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -487,7 +487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,31 +497,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
@@ -589,17 +589,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
@@ -691,17 +691,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -487,7 +487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,31 +497,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
@@ -589,17 +589,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
@@ -691,17 +691,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
@@ -742,17 +742,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -497,31 +497,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,14 +565,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Peyton Watson</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -582,14 +582,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
@@ -623,85 +623,85 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
@@ -736,23 +736,6 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>Charlotte Hornets</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Darius Garland</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,14 +463,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Scotty Pippen Jr.</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -616,48 +616,48 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,73 +667,56 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Mark Williams</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
-        <is>
-          <t>Phoenix Suns</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Mark Williams</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>Charlotte Hornets</t>
         </is>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tyrese Maxey</t>
+          <t>Austin Reaves</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,14 +463,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Stephen Curry</t>
+          <t>Tyrese Haliburton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,48 +480,48 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tyrese Haliburton</t>
+          <t>Darius Garland</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Darius Garland</t>
+          <t>Kevin Durant</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kevin Durant</t>
+          <t>Franz Wagner</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -531,14 +531,14 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Phoenix Suns</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Franz Wagner</t>
+          <t>OG Anunoby</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,14 +548,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Karl-Anthony Towns</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -565,82 +565,82 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>New York Knicks</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OG Anunoby</t>
+          <t>Jalen Duren</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>Detroit Pistons</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Karl-Anthony Towns</t>
+          <t>Trey Murphy III</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PF,C</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>New York Knicks</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jarrett Allen</t>
+          <t>Jalen Johnson</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jalen Johnson</t>
+          <t>Keegan Murray</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Sacramento Kings</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jalen Duren</t>
+          <t>Jarrett Allen</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,14 +650,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Detroit Pistons</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Austin Reaves</t>
+          <t>Tyrese Maxey</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,58 +667,58 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Philadelphia 76ers</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Trey Murphy III</t>
+          <t>Stephen Curry</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>New Orleans Pelicans</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Keegan Murray</t>
+          <t>Mark Williams</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
+          <t>Charlotte Hornets</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Mark Williams</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>PF,C</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Takım</t>
   </si>
   <si>
-    <t>Ben Simmons</t>
+    <t>Stephen Curry</t>
   </si>
   <si>
     <t>Austin Reaves</t>
@@ -49,36 +49,30 @@
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>PG,C</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -97,7 +91,7 @@
     <t>PF</t>
   </si>
   <si>
-    <t>Brooklyn Nets</t>
+    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
@@ -118,28 +112,25 @@
     <t>New York Knicks</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
     <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
 </sst>
 </file>
@@ -497,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,21 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -28,48 +28,48 @@
     <t>Stephen Curry</t>
   </si>
   <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
     <t>Trey Murphy III</t>
   </si>
   <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
     <t>Mark Williams</t>
   </si>
   <si>
@@ -94,40 +94,40 @@
     <t>Golden State Warriors</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Charlotte Hornets</t>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
     <t>Trey Murphy III</t>
   </si>
   <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
     <t>Mark Williams</t>
   </si>
   <si>
@@ -85,49 +85,49 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF</t>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Charlotte Hornets</t>
@@ -576,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>31</v>
@@ -587,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,7 +601,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -623,7 +623,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +645,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,58 +25,67 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Rui Hachimura</t>
+  </si>
+  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
+    <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>SF,PF</t>
@@ -85,52 +94,55 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
-    <t>C</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,10 +533,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +544,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -620,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +687,32 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>38</v>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -40,36 +40,36 @@
     <t>Keegan Murray</t>
   </si>
   <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Zach Collins</t>
+  </si>
+  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Rui Hachimura</t>
-  </si>
-  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
@@ -91,15 +91,15 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
@@ -115,25 +115,28 @@
     <t>Sacramento Kings</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>San Antonio Spurs</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
     <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
@@ -577,7 +580,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -588,10 +591,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +605,7 @@
         <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +613,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -632,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +649,7 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +660,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,7 +668,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -676,7 +679,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -690,7 +693,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,7 +715,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -34,72 +34,72 @@
     <t>Tyrese Haliburton</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
     <t>Taurean Prince</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Zach Collins</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
@@ -109,43 +109,40 @@
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
     <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
   </si>
 </sst>
 </file>
@@ -558,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -569,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -580,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -635,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -679,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -701,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -40,45 +40,45 @@
     <t>OG Anunoby</t>
   </si>
   <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
   </si>
   <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
     <t>Franz Wagner</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -88,15 +88,15 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
@@ -115,34 +115,34 @@
     <t>New York Knicks</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
 </sst>
 </file>
@@ -580,7 +580,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +591,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +602,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -643,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -687,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +701,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -49,21 +49,21 @@
     <t>Royce O'Neale</t>
   </si>
   <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
@@ -91,12 +91,12 @@
     <t>PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>SG,SF</t>
   </si>
   <si>
@@ -124,13 +124,13 @@
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
     <t>Charlotte Hornets</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
@@ -613,7 +613,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -646,7 +646,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +657,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -49,36 +49,36 @@
     <t>Royce O'Neale</t>
   </si>
   <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
   </si>
   <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -127,22 +127,22 @@
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -709,7 +709,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -34,72 +34,72 @@
     <t>Tyrese Haliburton</t>
   </si>
   <si>
+    <t>Taurean Prince</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Taurean Prince</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
     <t>PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
@@ -109,40 +109,40 @@
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +632,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -676,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -34,7 +34,7 @@
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Taurean Prince</t>
+    <t>Stephen Curry</t>
   </si>
   <si>
     <t>Kevin Durant</t>
@@ -55,12 +55,12 @@
     <t>Mark Williams</t>
   </si>
   <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
@@ -85,9 +85,6 @@
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -109,7 +106,7 @@
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Milwaukee Bucks</t>
+    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
@@ -124,10 +121,10 @@
     <t>Charlotte Hornets</t>
   </si>
   <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>New York Knicks</t>
@@ -525,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,7 +533,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,7 +544,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -665,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +687,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -40,36 +40,36 @@
     <t>Kevin Durant</t>
   </si>
   <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Brandon Clarke</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
-  </si>
-  <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
@@ -88,15 +88,15 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>PF</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
@@ -112,25 +112,25 @@
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -607,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -665,7 +665,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -706,7 +706,7 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -43,10 +43,22 @@
     <t>OG Anunoby</t>
   </si>
   <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
     <t>Trey Murphy III</t>
   </si>
   <si>
-    <t>Royce O'Neale</t>
+    <t>Jalen Duren</t>
   </si>
   <si>
     <t>Daniel Gafford</t>
@@ -55,30 +67,15 @@
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
-    <t>Brandon Clarke</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
     <t>Franz Wagner</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -88,15 +85,12 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
@@ -115,31 +109,28 @@
     <t>New York Knicks</t>
   </si>
   <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
   </si>
   <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
 </sst>
 </file>
@@ -497,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -607,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -629,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,21 +686,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -43,21 +43,21 @@
     <t>OG Anunoby</t>
   </si>
   <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
     <t>Royce O'Neale</t>
   </si>
   <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
@@ -109,13 +109,13 @@
     <t>New York Knicks</t>
   </si>
   <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
@@ -579,7 +579,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -49,33 +49,33 @@
     <t>Royce O'Neale</t>
   </si>
   <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
-    <t>Mark Williams</t>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
   </si>
   <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -115,22 +115,22 @@
     <t>Charlotte Hornets</t>
   </si>
   <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,7 +612,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -631,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -664,7 +664,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
@@ -675,7 +675,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -37,45 +37,45 @@
     <t>Stephen Curry</t>
   </si>
   <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Royce O'Neale</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Royce O'Neale</t>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
   </si>
   <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -103,34 +103,34 @@
     <t>Golden State Warriors</t>
   </si>
   <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
   </si>
 </sst>
 </file>
@@ -590,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,7 +601,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,7 +623,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,7 +634,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +645,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -686,7 +686,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Trey Murphy III</t>
   </si>
   <si>
-    <t>Royce O'Neale</t>
+    <t>Ochai Agbaji</t>
   </si>
   <si>
     <t>Jarrett Allen</t>
@@ -85,6 +85,9 @@
     <t>SF,PF</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
@@ -112,13 +115,16 @@
     <t>New Orleans Pelicans</t>
   </si>
   <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
@@ -513,7 +519,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +530,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,7 +541,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,7 +552,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,7 +563,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,7 +574,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,7 +585,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,7 +640,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,7 +662,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +673,7 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +684,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -686,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -37,36 +37,36 @@
     <t>Stephen Curry</t>
   </si>
   <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Ochai Agbaji</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
     <t>Trey Murphy III</t>
   </si>
   <si>
-    <t>Ochai Agbaji</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>SG,SF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
@@ -106,28 +106,28 @@
     <t>Golden State Warriors</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Toronto Raptors</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -593,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>26</v>
@@ -615,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +640,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -43,12 +43,12 @@
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Ochai Agbaji</t>
-  </si>
-  <si>
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
+    <t>Julian Champagnie</t>
+  </si>
+  <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
@@ -64,18 +64,18 @@
     <t>Keegan Murray</t>
   </si>
   <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
     <t>Trey Murphy III</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -85,9 +85,6 @@
     <t>SF,PF</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>PF,C</t>
   </si>
   <si>
@@ -112,7 +109,7 @@
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Toronto Raptors</t>
+    <t>San Antonio Spurs</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
@@ -127,16 +124,16 @@
     <t>Sacramento Kings</t>
   </si>
   <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
   </si>
 </sst>
 </file>
@@ -519,7 +516,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,7 +527,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,7 +538,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -552,7 +549,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -563,7 +560,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -574,7 +571,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -585,7 +582,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -604,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,7 +637,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -28,54 +28,54 @@
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Julian Champagnie</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
     <t>Kevin Durant</t>
   </si>
   <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -94,46 +94,46 @@
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -582,7 +582,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -604,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,63 +25,63 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Malcolm Brogdon</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
     <t>Darius Garland</t>
   </si>
   <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
+    <t>Franz Wagner</t>
   </si>
   <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
+    <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -91,49 +91,49 @@
     <t>C</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -568,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -615,7 +615,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -656,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,57 +25,57 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
     <t>Malcolm Brogdon</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -91,49 +91,49 @@
     <t>C</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Washington Wizards</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -656,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,48 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
@@ -91,40 +91,40 @@
     <t>C</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -568,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -604,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3">

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,6 +25,9 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
@@ -34,48 +37,48 @@
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Toumani Camara</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
   </si>
   <si>
     <t>Trey Murphy III</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Malcolm Brogdon</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>C</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
@@ -100,40 +106,37 @@
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Washington Wizards</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +516,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +541,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +560,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +574,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +593,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +604,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +615,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,7 +626,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -634,7 +637,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -645,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -656,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -678,7 +681,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
         <v>38</v>
@@ -689,10 +692,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,60 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Toumani Camara</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
+    <t>Dereck Lively II</t>
   </si>
   <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
   </si>
   <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -94,49 +94,46 @@
     <t>C</t>
   </si>
   <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
   </si>
 </sst>
 </file>
@@ -538,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -549,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -585,7 +582,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -607,7 +604,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -618,7 +615,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -637,7 +634,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -659,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -695,7 +692,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,10 +700,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Jaden Hardy</t>
+  </si>
+  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
     <t>Stephen Curry</t>
   </si>
   <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
     <t>Darius Garland</t>
   </si>
   <si>
-    <t>Jaden Hardy</t>
-  </si>
-  <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
     <t>Franz Wagner</t>
   </si>
   <si>
@@ -82,16 +82,22 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
@@ -100,31 +106,25 @@
     <t>Golden State Warriors</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
     <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Orlando Magic</t>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -571,7 +571,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,7 +28,7 @@
     <t>Tyrese Maxey</t>
   </si>
   <si>
-    <t>Jaden Hardy</t>
+    <t>Ziaire Williams</t>
   </si>
   <si>
     <t>Austin Reaves</t>
@@ -82,6 +82,9 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -97,16 +100,19 @@
     <t>Philadelphia 76ers</t>
   </si>
   <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
@@ -516,7 +522,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,7 +555,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +574,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +585,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +596,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +607,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +684,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,10 +695,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,7 +709,7 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Ziaire Williams</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
   </si>
   <si>
     <t>Dereck Lively II</t>
   </si>
   <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
+    <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
     <t>Orlando Magic</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -588,7 +588,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,7 +599,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +610,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +621,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,7 +632,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,7 +643,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -654,7 +654,7 @@
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -706,10 +706,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Ziaire Williams</t>
-  </si>
-  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
     <t>Franz Wagner</t>
   </si>
   <si>
@@ -79,12 +79,12 @@
     <t>Dereck Lively II</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -94,43 +94,40 @@
     <t>C</t>
   </si>
   <si>
-    <t>SG,SF</t>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
@@ -522,7 +519,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -530,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -541,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -555,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -566,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -577,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -599,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,7 +607,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -632,7 +629,7 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,7 +640,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,10 +648,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,7 +695,7 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -709,7 +706,7 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -28,57 +28,57 @@
     <t>Jrue Holiday</t>
   </si>
   <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Dereck Lively II</t>
   </si>
   <si>
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -97,46 +97,46 @@
     <t>Boston Celtics</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
     <t>Charlotte Hornets</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
 </sst>
 </file>
@@ -582,10 +582,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -618,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +626,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,7 +651,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,60 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
     <t>Jrue Holiday</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
   </si>
   <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
     <t>Dereck Lively II</t>
   </si>
   <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -94,49 +94,49 @@
     <t>C</t>
   </si>
   <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -659,10 +659,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +670,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -28,57 +28,57 @@
     <t>Austin Reaves</t>
   </si>
   <si>
+    <t>Jrue Holiday</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>Franz Wagner</t>
   </si>
   <si>
+    <t>Dereck Lively II</t>
+  </si>
+  <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -97,40 +97,40 @@
     <t>Los Angeles Lakers</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
     <t>Sacramento Kings</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
   </si>
   <si>
     <t>Orlando Magic</t>
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -596,7 +596,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -618,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -629,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,7 +651,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -662,7 +662,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -692,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -28,57 +28,57 @@
     <t>Austin Reaves</t>
   </si>
   <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
     <t>Jrue Holiday</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
     <t>Keegan Murray</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
     <t>Franz Wagner</t>
   </si>
   <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
     <t>Dereck Lively II</t>
   </si>
   <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -97,40 +97,40 @@
     <t>Los Angeles Lakers</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>Boston Celtics</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Orlando Magic</t>
@@ -659,7 +659,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>37</v>
@@ -670,7 +670,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -692,10 +692,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -703,10 +703,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -37,45 +37,42 @@
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Jrue Holiday</t>
-  </si>
-  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
     <t>Franz Wagner</t>
   </si>
   <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
     <t>Dereck Lively II</t>
   </si>
   <si>
@@ -106,37 +103,34 @@
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
     <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
 </sst>
 </file>
@@ -494,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +521,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -604,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +609,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -626,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -637,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>35</v>
@@ -648,7 +642,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
@@ -659,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,21 +686,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -61,21 +61,18 @@
     <t>Mark Williams</t>
   </si>
   <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
     <t>Franz Wagner</t>
   </si>
   <si>
-    <t>Dereck Lively II</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -124,10 +121,10 @@
     <t>Charlotte Hornets</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Orlando Magic</t>
@@ -488,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,10 +518,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +529,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +617,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +639,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -664,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,21 +672,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -37,54 +37,54 @@
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -100,34 +100,34 @@
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Atlanta Hawks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -584,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,7 +598,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,7 +606,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -617,7 +617,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -628,7 +628,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -639,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -653,7 +653,7 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -672,7 +672,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>37</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
@@ -55,36 +58,36 @@
     <t>Trey Murphy III</t>
   </si>
   <si>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Jalen Johnson</t>
+  </si>
+  <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -100,6 +103,9 @@
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
@@ -115,19 +121,19 @@
     <t>New Orleans Pelicans</t>
   </si>
   <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
     <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -518,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -529,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -540,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -551,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -562,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,7 +582,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -584,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -595,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -617,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,7 +670,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,7 +681,18 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -52,24 +52,24 @@
     <t>Jarrett Allen</t>
   </si>
   <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
     <t>Cason Wallace</t>
   </si>
   <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
@@ -115,19 +115,19 @@
     <t>Sacramento Kings</t>
   </si>
   <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Cason Wallace</t>
+  </si>
+  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
     <t>Franz Wagner</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Cason Wallace</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
     <t>Jalen Johnson</t>
   </si>
   <si>
@@ -91,43 +91,43 @@
     <t>C</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Oklahoma City Thunder</t>
+  </si>
+  <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
     <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Atlanta Hawks</t>
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -667,7 +667,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,63 +25,60 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Zach Edey</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Cason Wallace</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jalen Johnson</t>
-  </si>
-  <si>
     <t>Mark Williams</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -91,46 +88,43 @@
     <t>C</t>
   </si>
   <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Oklahoma City Thunder</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Charlotte Hornets</t>
@@ -491,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +521,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,7 +532,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +562,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +595,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +606,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +617,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -667,10 +661,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,21 +672,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,106 +25,103 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Ausar Thompson</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
     <t>Darius Garland</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Zach Edey</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
     <t>Mark Williams</t>
   </si>
   <si>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
   </si>
   <si>
     <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Charlotte Hornets</t>
@@ -518,7 +515,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -529,7 +526,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -540,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -551,7 +548,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -562,7 +559,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -573,7 +570,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -584,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -595,10 +592,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,7 +603,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>32</v>
@@ -617,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
@@ -628,7 +625,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -639,7 +636,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -650,10 +647,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,7 +658,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -672,10 +669,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -37,54 +37,51 @@
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Ausar Thompson</t>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
   </si>
   <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
     <t>Darius Garland</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
@@ -100,31 +97,31 @@
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
   </si>
 </sst>
 </file>
@@ -482,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,10 +501,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -515,10 +512,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -526,10 +523,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -537,10 +534,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -548,10 +545,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -559,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -570,10 +567,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -581,10 +578,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -592,10 +589,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -603,10 +600,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -617,7 +614,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -625,10 +622,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,7 +636,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -647,10 +644,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -658,21 +655,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -31,97 +31,109 @@
     <t>Austin Reaves</t>
   </si>
   <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
   </si>
   <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>PF,C</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
+    <t>Charlotte Hornets</t>
   </si>
   <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
+    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -479,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -512,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -523,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -534,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -545,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -556,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -567,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -578,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -589,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -600,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -611,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -622,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -636,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -644,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -655,10 +667,32 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C16" t="s">
-        <v>32</v>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Santi Aldama</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
+    <t>Jarrett Allen</t>
   </si>
   <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
     <t>Cameron Johnson</t>
   </si>
   <si>
@@ -91,46 +91,46 @@
     <t>C</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Memphis Grizzlies</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
     <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
@@ -604,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +615,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +626,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -692,7 +692,7 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,48 +25,48 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Andrew Nembhard</t>
+  </si>
+  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Santi Aldama</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
@@ -76,12 +76,12 @@
     <t>OG Anunoby</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -91,43 +91,37 @@
     <t>C</t>
   </si>
   <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Memphis Grizzlies</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
@@ -524,7 +518,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -535,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -615,7 +609,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +620,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +639,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +650,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,7 +664,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +675,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,109 +25,124 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Quentin Grimes</t>
+  </si>
+  <si>
+    <t>Daniel Gafford</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
     <t>Darius Garland</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
+    <t>Cameron Johnson</t>
   </si>
   <si>
     <t>Kevin Durant</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
+    <t>OG Anunoby</t>
   </si>
   <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Andrew Nembhard</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PG,SG,SF</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Phoenix Suns</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
+    <t>Charlotte Hornets</t>
   </si>
 </sst>
 </file>
@@ -485,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -507,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,7 +536,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,7 +547,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,7 +558,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,7 +569,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,7 +580,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,7 +591,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -584,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -595,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -606,10 +621,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,7 +635,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -628,10 +643,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -639,10 +654,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -650,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -661,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,7 +690,7 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -686,7 +701,18 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,63 +25,66 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Quentin Grimes</t>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
   </si>
   <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
     <t>SF,PF</t>
   </si>
   <si>
@@ -97,52 +100,49 @@
     <t>PG,SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -566,7 +566,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>33</v>
@@ -588,7 +588,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -599,10 +599,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -610,10 +610,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -632,7 +632,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -643,7 +643,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -654,7 +654,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
@@ -665,10 +665,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,10 +676,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -687,10 +687,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,7 +698,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -709,10 +709,10 @@
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,57 +25,57 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Gary Trent Jr.</t>
+  </si>
+  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Gary Trent Jr.</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
     <t>Cameron Johnson</t>
   </si>
   <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
     <t>Daniel Gafford</t>
   </si>
   <si>
@@ -100,49 +100,49 @@
     <t>PG,SG,SF</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
     <t>Brooklyn Nets</t>
   </si>
   <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
     <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +624,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -690,7 +690,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -698,10 +698,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Trey Murphy III</t>
   </si>
   <si>
-    <t>Gary Trent Jr.</t>
+    <t>Buddy Hield</t>
   </si>
   <si>
     <t>Tyrese Haliburton</t>
@@ -97,9 +97,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>PG,SG,SF</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
   </si>
   <si>
     <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Milwaukee Bucks</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
@@ -525,7 +519,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -536,7 +530,7 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -547,7 +541,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -558,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -569,7 +563,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -580,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -591,7 +585,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -602,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -613,7 +607,7 @@
         <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -624,7 +618,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -635,7 +629,7 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -643,10 +637,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -657,7 +651,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -668,7 +662,7 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -679,7 +673,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -690,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -701,7 +695,7 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -712,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -40,45 +40,42 @@
     <t>Franz Wagner</t>
   </si>
   <si>
+    <t>Jaxson Hayes</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
   </si>
   <si>
     <t>Klay Thompson</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Buddy Hield</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Daniel Gafford</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -91,12 +88,12 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
@@ -112,31 +109,31 @@
     <t>Orlando Magic</t>
   </si>
   <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>New York Knicks</t>
   </si>
   <si>
-    <t>Sacramento Kings</t>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
   </si>
   <si>
     <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
   </si>
 </sst>
 </file>
@@ -494,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +513,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -538,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -549,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,10 +557,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -670,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,21 +689,10 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -28,112 +28,112 @@
     <t>Stephen Curry</t>
   </si>
   <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jaxson Hayes</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Nick Richards</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
   </si>
   <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
+    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -571,7 +571,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -637,7 +637,7 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -659,7 +659,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -689,7 +689,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
         <v>39</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,57 +25,57 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Nick Richards</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
   </si>
   <si>
     <t>Jarrett Allen</t>
   </si>
   <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Nick Richards</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
@@ -94,46 +94,46 @@
     <t>PF,C</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
     <t>Golden State Warriors</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,7 +612,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -645,7 +645,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
         <v>37</v>
@@ -667,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -681,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,51 +25,51 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Nick Richards</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
     <t>Klay Thompson</t>
   </si>
   <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Nick Richards</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
@@ -79,61 +79,61 @@
     <t>PG,SG</t>
   </si>
   <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Indiana Pacers</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
   </si>
   <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>32</v>
@@ -590,7 +590,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -623,7 +623,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
@@ -656,7 +656,7 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -678,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -692,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -28,112 +28,109 @@
     <t>Tyrese Haliburton</t>
   </si>
   <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>Darius Garland</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Nick Richards</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
     <t>PG,SG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
   </si>
 </sst>
 </file>
@@ -491,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -527,7 +524,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -568,10 +565,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -579,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -590,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -601,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,21 +675,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,52 +25,55 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
     <t>Klay Thompson</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
   </si>
   <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
+    <t>PG</t>
   </si>
   <si>
     <t>PG,SG</t>
@@ -88,49 +91,49 @@
     <t>C</t>
   </si>
   <si>
-    <t>PG</t>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
   </si>
   <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,7 +527,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,10 +535,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -557,7 +560,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,10 +579,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,10 +590,10 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,10 +645,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,10 +678,10 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -28,112 +28,112 @@
     <t>Darius Garland</t>
   </si>
   <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
   </si>
   <si>
     <t>Tyrese Maxey</t>
   </si>
   <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
-  </si>
-  <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
     <t>PG</t>
   </si>
   <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
     <t>Indiana Pacers</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -546,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -557,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -604,7 +604,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -612,10 +612,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -623,10 +623,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +634,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -648,7 +648,7 @@
         <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +656,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,7 +678,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Oyuncu Adı</t>
   </si>
@@ -25,52 +25,70 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
     <t>Darius Garland</t>
   </si>
   <si>
     <t>Klay Thompson</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
     <t>OG Anunoby</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
+    <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>Mark Williams</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>PF,C</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
   <si>
     <t>PG</t>
@@ -79,19 +97,37 @@
     <t>SG,SF</t>
   </si>
   <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
@@ -100,40 +136,10 @@
     <t>Dallas Mavericks</t>
   </si>
   <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Charlotte Hornets</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
   </si>
 </sst>
 </file>
@@ -491,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,10 +519,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -524,10 +530,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -535,10 +541,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -546,10 +552,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -560,7 +566,7 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -571,7 +577,7 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -582,7 +588,7 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -593,7 +599,7 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -604,7 +610,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -615,7 +621,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -626,7 +632,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -634,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -645,10 +651,10 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -656,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -667,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -678,10 +684,21 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Darius Garland</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Al Horford</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
+    <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>Cameron Johnson</t>
   </si>
   <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Al Horford</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Darius Garland</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
   </si>
   <si>
     <t>PG,SG</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
+    <t>SG,SF</t>
   </si>
   <si>
     <t>SF,PF</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>PF,C</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
   </si>
   <si>
     <t>Los Angeles Lakers</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Brooklyn Nets</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Cleveland Cavaliers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -629,7 +629,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -665,7 +665,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -676,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>

--- a/yahoo/TrendyOwls.xlsx
+++ b/yahoo/TrendyOwls.xlsx
@@ -25,121 +25,121 @@
     <t>Takım</t>
   </si>
   <si>
+    <t>Stephen Curry</t>
+  </si>
+  <si>
+    <t>Trey Murphy III</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Klay Thompson</t>
+  </si>
+  <si>
+    <t>Cameron Johnson</t>
+  </si>
+  <si>
+    <t>Keegan Murray</t>
+  </si>
+  <si>
+    <t>Franz Wagner</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>Mark Williams</t>
+  </si>
+  <si>
+    <t>Karl-Anthony Towns</t>
+  </si>
+  <si>
+    <t>OG Anunoby</t>
+  </si>
+  <si>
+    <t>Austin Reaves</t>
+  </si>
+  <si>
     <t>Darius Garland</t>
   </si>
   <si>
-    <t>Trey Murphy III</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Klay Thompson</t>
-  </si>
-  <si>
-    <t>OG Anunoby</t>
-  </si>
-  <si>
-    <t>Keegan Murray</t>
-  </si>
-  <si>
-    <t>Franz Wagner</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
-  </si>
-  <si>
-    <t>Mark Williams</t>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
   </si>
   <si>
     <t>Al Horford</t>
   </si>
   <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Stephen Curry</t>
-  </si>
-  <si>
-    <t>Karl-Anthony Towns</t>
-  </si>
-  <si>
-    <t>Austin Reaves</t>
-  </si>
-  <si>
-    <t>Tyrese Maxey</t>
-  </si>
-  <si>
-    <t>Cameron Johnson</t>
+    <t>PG,SG</t>
+  </si>
+  <si>
+    <t>SG,SF,PF</t>
+  </si>
+  <si>
+    <t>SG,SF</t>
+  </si>
+  <si>
+    <t>SF,PF</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>PF,C</t>
   </si>
   <si>
     <t>PG</t>
   </si>
   <si>
-    <t>SG,SF,PF</t>
-  </si>
-  <si>
-    <t>PG,SG</t>
-  </si>
-  <si>
-    <t>SG,SF</t>
-  </si>
-  <si>
-    <t>SF,PF</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>PF,C</t>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>New York Knicks</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
   </si>
   <si>
     <t>Cleveland Cavaliers</t>
   </si>
   <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
-  </si>
-  <si>
-    <t>Dallas Mavericks</t>
-  </si>
-  <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
-    <t>Orlando Magic</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Charlotte Hornets</t>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
   </si>
   <si>
     <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Detroit Pistons</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Brooklyn Nets</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -552,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -563,7 +563,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -585,7 +585,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>35</v>
@@ -618,7 +618,7 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>36</v>
@@ -629,10 +629,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -640,10 +640,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -651,7 +651,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>38</v>
@@ -662,10 +662,10 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -673,10 +673,10 @@
         <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -684,7 +684,7 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -695,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>41</v>
